--- a/reports/grade.xlsx
+++ b/reports/grade.xlsx
@@ -11,14 +11,14 @@
     <sheet name="BACK" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'FRONT'!$A$1:$I$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'FRONT'!$A$1:$I$52</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -118,85 +118,103 @@
     <t>4TH</t>
   </si>
   <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>MAPEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Music</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Physical Education</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>ANGELYN P. COMENDADOR, MAEd.</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>SHELDON COOPER</t>
+  </si>
+  <si>
+    <t>Approved:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Eligibility for admission to Grade:</t>
+  </si>
+  <si>
+    <t>Admitted to:</t>
+  </si>
+  <si>
+    <t>GRADE 1 - SECTION APPLE</t>
+  </si>
+  <si>
+    <t>Admitted to Grade:</t>
+  </si>
+  <si>
+    <t>Cancellation of Eligibility</t>
+  </si>
+  <si>
+    <t>Certificate of Transfer</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Below 75</t>
+  </si>
+  <si>
+    <t>Did Not Meet Expectations</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>Fairly Satisfactory</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
+    <t>Very Satisfactory</t>
+  </si>
+  <si>
+    <t>90-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding </t>
+  </si>
+  <si>
+    <t>Grading Scale</t>
+  </si>
+  <si>
+    <t>Descriptors</t>
+  </si>
+  <si>
     <t>General Average</t>
   </si>
   <si>
-    <t>Descriptors</t>
-  </si>
-  <si>
-    <t>Grading Scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outstanding </t>
-  </si>
-  <si>
-    <t>90-100</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Very Satisfactory</t>
-  </si>
-  <si>
-    <t>85-89</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>80-84</t>
-  </si>
-  <si>
-    <t>Fairly Satisfactory</t>
-  </si>
-  <si>
-    <t>75-79</t>
-  </si>
-  <si>
-    <t>Did Not Meet Expectations</t>
-  </si>
-  <si>
-    <t>Below 75</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Certificate of Transfer</t>
-  </si>
-  <si>
-    <t>Cancellation of Eligibility</t>
-  </si>
-  <si>
-    <t>Admitted to Grade:</t>
-  </si>
-  <si>
-    <t>GRADE 1 - SECTION APPLE</t>
-  </si>
-  <si>
-    <t>Admitted to:</t>
-  </si>
-  <si>
-    <t>Eligibility for admission to Grade:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Approved:</t>
-  </si>
-  <si>
-    <t>SHELDON COOPER</t>
-  </si>
-  <si>
-    <t>ANGELYN P. COMENDADOR, MAEd.</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>Principal</t>
+    <t xml:space="preserve"> ...Health</t>
   </si>
   <si>
     <t>REPORT ON LEARNER’S ATTENDANCE</t>
@@ -1682,7 +1700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="70" view="pageLayout" showGridLines="true" showRowColHeaders="1" topLeftCell="A22">
       <selection activeCell="G27" sqref="G27"/>
@@ -1714,6 +1732,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" customHeight="1" ht="13.5">
       <c r="A2" s="53" t="s">
@@ -1727,6 +1746,7 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
+      <c r="J2"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="14.25">
       <c r="A3" s="52" t="s">
@@ -1740,6 +1760,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="13.5">
       <c r="A4" s="53" t="s">
@@ -1753,6 +1774,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
+      <c r="J4"/>
     </row>
     <row r="5" spans="1:10" customHeight="1" ht="13.5">
       <c r="A5" s="16"/>
@@ -1766,6 +1788,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="J5"/>
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="12.75">
       <c r="A6" s="57" t="s">
@@ -1779,6 +1802,7 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58"/>
+      <c r="J6"/>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="14.25">
       <c r="A7" s="59" t="s">
@@ -1792,6 +1816,7 @@
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
+      <c r="J7"/>
     </row>
     <row r="8" spans="1:10" customHeight="1" ht="16.5">
       <c r="A8" s="1"/>
@@ -1807,6 +1832,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="J8"/>
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="16.2">
       <c r="A9" s="60" t="s">
@@ -1842,6 +1868,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="111"/>
+      <c r="J10"/>
     </row>
     <row r="11" spans="1:10" customHeight="1" ht="15">
       <c r="A11" s="5" t="s">
@@ -1865,6 +1892,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="56"/>
+      <c r="J11"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
@@ -1880,6 +1908,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" customHeight="1" ht="3">
       <c r="A13" s="5"/>
@@ -1891,6 +1920,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
+      <c r="J13"/>
     </row>
     <row r="14" spans="1:10" customHeight="1" ht="15">
       <c r="A14" s="66" t="s">
@@ -1904,6 +1934,7 @@
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
       <c r="I14" s="68"/>
+      <c r="J14"/>
     </row>
     <row r="15" spans="1:10" customHeight="1" ht="15.75">
       <c r="A15" s="69"/>
@@ -1915,6 +1946,7 @@
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
       <c r="I15" s="71"/>
+      <c r="J15"/>
     </row>
     <row r="16" spans="1:10" customHeight="1" ht="15.75">
       <c r="A16" s="69"/>
@@ -1926,6 +1958,7 @@
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
       <c r="I16" s="71"/>
+      <c r="J16"/>
     </row>
     <row r="17" spans="1:10" customHeight="1" ht="15.75">
       <c r="A17" s="69"/>
@@ -1937,6 +1970,7 @@
       <c r="G17" s="70"/>
       <c r="H17" s="70"/>
       <c r="I17" s="71"/>
+      <c r="J17"/>
     </row>
     <row r="18" spans="1:10" customHeight="1" ht="15.75">
       <c r="A18" s="69"/>
@@ -1948,6 +1982,7 @@
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
       <c r="I18" s="71"/>
+      <c r="J18"/>
     </row>
     <row r="19" spans="1:10" customHeight="1" ht="14.25" hidden="true">
       <c r="A19" s="69"/>
@@ -1959,6 +1994,7 @@
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
       <c r="I19" s="71"/>
+      <c r="J19"/>
     </row>
     <row r="20" spans="1:10" customHeight="1" ht="3" hidden="true">
       <c r="A20" s="69"/>
@@ -1970,6 +2006,7 @@
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
       <c r="I20" s="71"/>
+      <c r="J20"/>
     </row>
     <row r="21" spans="1:10" customHeight="1" ht="15.75" hidden="true">
       <c r="A21" s="69"/>
@@ -1981,6 +2018,7 @@
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
       <c r="I21" s="71"/>
+      <c r="J21"/>
     </row>
     <row r="22" spans="1:10" customHeight="1" ht="8.25">
       <c r="A22" s="72"/>
@@ -1994,6 +2032,7 @@
       <c r="G22" s="73"/>
       <c r="H22" s="73"/>
       <c r="I22" s="74"/>
+      <c r="J22"/>
     </row>
     <row r="23" spans="1:10" customHeight="1" ht="15.6">
       <c r="A23" s="53" t="s">
@@ -2007,6 +2046,7 @@
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:10" customHeight="1" ht="15.75">
       <c r="A24" s="75" t="s">
@@ -2026,6 +2066,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="79"/>
+      <c r="J24"/>
     </row>
     <row r="25" spans="1:10" customHeight="1" ht="15.75">
       <c r="A25" s="77"/>
@@ -2045,6 +2086,7 @@
       <c r="G25" s="80"/>
       <c r="H25" s="81"/>
       <c r="I25" s="82"/>
+      <c r="J25"/>
     </row>
     <row r="26" spans="1:10" customHeight="1" ht="15.6">
       <c r="A26" s="83"/>
@@ -2058,336 +2100,464 @@
         <v/>
       </c>
       <c r="H26" s="85" t="str">
-        <f>IF(G26="","",IF(G26&gt;=75,$G$30,$G$34))</f>
+        <f>IF(G26="","",IF(G26&gt;=75,$G$36,$G$40))</f>
         <v/>
       </c>
       <c r="I26" s="86"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A27" s="87" t="s">
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" customHeight="1" ht="15.6">
+      <c r="A27" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="46" t="str">
+      <c r="B27" s="84"/>
+      <c r="C27" s="13">
+        <v>99</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="86"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" customHeight="1" ht="15.6">
+      <c r="A28" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="13">
+        <f>AVERAGE(C29:C32)</f>
+        <v>88.75</v>
+      </c>
+      <c r="D28" s="14" t="e">
+        <f>AVERAGE(D29:D32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="14" t="e">
+        <f>AVERAGE(E29:E32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="17" t="e">
+        <f>AVERAGE(F29:F32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" customHeight="1" ht="15.6">
+      <c r="A29" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="13">
+        <v>98</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" customHeight="1" ht="15.6">
+      <c r="A30" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="84"/>
+      <c r="C30" s="13">
+        <v>88</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" customHeight="1" ht="15.6">
+      <c r="A31" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="13">
+        <v>91</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="86"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" customHeight="1" ht="15.6">
+      <c r="A32" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="84"/>
+      <c r="C32" s="13">
+        <v>78</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="86"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A33" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="88"/>
+      <c r="C33" s="46" t="str">
         <f>IF(ISERROR(IF(#REF!="","",ROUND(AVERAGE(C26:C26,#REF!),0))),"",IF(#REF!="","",ROUND(AVERAGE(C26:C26,#REF!),0)))</f>
         <v/>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D33" s="4" t="str">
         <f>IF(ISERROR(IF(#REF!="","",ROUND(AVERAGE(D26:D26,#REF!),0))),"",IF(#REF!="","",ROUND(AVERAGE(D26:D26,#REF!),0)))</f>
         <v/>
       </c>
-      <c r="E27" s="4" t="str">
+      <c r="E33" s="4" t="str">
         <f>IF(ISERROR(IF(#REF!="","",ROUND(AVERAGE(E26:E26,#REF!),0))),"",IF(#REF!="","",ROUND(AVERAGE(E26:E26,#REF!),0)))</f>
         <v/>
       </c>
-      <c r="F27" s="4" t="str">
+      <c r="F33" s="4" t="str">
         <f>IF(ISERROR(IF(#REF!="","",ROUND(AVERAGE(F26:F26,#REF!),0))),"",IF(#REF!="","",ROUND(AVERAGE(F26:F26,#REF!),0)))</f>
         <v/>
       </c>
-      <c r="G27" s="89" t="str">
+      <c r="G33" s="89" t="str">
         <f>IF(OR(G26="",#REF!="",#REF!="",#REF!="",#REF!="",#REF!="",#REF!="",#REF!=""),"",AVERAGE(G26:G26,#REF!))</f>
         <v/>
       </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="53" t="s">
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" customHeight="1" ht="3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" customHeight="1" ht="4.5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" customHeight="1" ht="2.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="52"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="52"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="52"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="52"/>
+      <c r="I39" s="1"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-    </row>
-    <row r="39" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A39" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-    </row>
-    <row r="40" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" customHeight="1" ht="5.25">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" customHeight="1" ht="4.5">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1"/>
-      <c r="B42" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="15"/>
-      <c r="F42" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-    </row>
-    <row r="43" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A43" s="1"/>
-      <c r="B43" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="6"/>
-      <c r="F43" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" customHeight="1" ht="2.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
+      <c r="A44" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A45" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" customHeight="1" ht="5.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1"/>
+      <c r="B48" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="92"/>
+      <c r="D48" s="15"/>
+      <c r="F48" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A49" s="1"/>
+      <c r="B49" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="6"/>
+      <c r="F49" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="1"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="J53" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="F43:I43"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="B12:D12"/>
@@ -2458,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="20.25">
       <c r="A1" s="98" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -2489,42 +2659,42 @@
     <row r="3" spans="1:12" customHeight="1" ht="18.6" s="26" customFormat="1">
       <c r="A3" s="47"/>
       <c r="B3" s="49" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" customHeight="1" ht="52.2">
       <c r="A4" s="27" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2540,7 +2710,7 @@
     </row>
     <row r="5" spans="1:12" customHeight="1" ht="52.2">
       <c r="A5" s="28" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -2556,7 +2726,7 @@
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="52.8">
       <c r="A6" s="29" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -2586,7 +2756,7 @@
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="18">
       <c r="A8" s="99" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B8" s="100"/>
       <c r="C8" s="100"/>
@@ -2645,7 +2815,7 @@
     <row r="12" spans="1:12" customHeight="1" ht="15"/>
     <row r="13" spans="1:12" customHeight="1" ht="21" s="2" customFormat="1">
       <c r="B13" s="108" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
@@ -2663,7 +2833,7 @@
     </row>
     <row r="15" spans="1:12" customHeight="1" ht="20.25" s="33" customFormat="1">
       <c r="B15" s="94" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C15" s="95"/>
       <c r="D15" s="95"/>
@@ -2681,7 +2851,7 @@
     </row>
     <row r="17" spans="1:12" customHeight="1" ht="17.4" s="33" customFormat="1">
       <c r="B17" s="94" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C17" s="95"/>
       <c r="D17" s="95"/>
@@ -2699,7 +2869,7 @@
     </row>
     <row r="19" spans="1:12" customHeight="1" ht="17.4" s="33" customFormat="1">
       <c r="B19" s="94" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C19" s="95"/>
       <c r="D19" s="95"/>
@@ -2718,7 +2888,7 @@
     </row>
     <row r="21" spans="1:12" customHeight="1" ht="17.4" s="33" customFormat="1">
       <c r="B21" s="94" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C21" s="95"/>
       <c r="D21" s="95"/>
@@ -2751,7 +2921,7 @@
     <row r="31" spans="1:12" customHeight="1" ht="30.75" s="33" customFormat="1"/>
     <row r="32" spans="1:12" customHeight="1" ht="18">
       <c r="A32" s="96" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -2767,10 +2937,10 @@
     </row>
     <row r="33" spans="1:12" customHeight="1" ht="16.8">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I33" s="97" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J33" s="97"/>
       <c r="K33" s="97"/>
@@ -2778,7 +2948,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="E37" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/reports/grade.xlsx
+++ b/reports/grade.xlsx
@@ -2131,17 +2131,17 @@
         <f>AVERAGE(C29:C32)</f>
         <v>88.75</v>
       </c>
-      <c r="D28" s="14" t="e">
+      <c r="D28" s="14">
         <f>AVERAGE(D29:D32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="14" t="e">
+        <v>88.666666666667</v>
+      </c>
+      <c r="E28" s="14">
         <f>AVERAGE(E29:E32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="17" t="e">
+        <v>89</v>
+      </c>
+      <c r="F28" s="17">
         <f>AVERAGE(F29:F32)</f>
-        <v>#DIV/0!</v>
+        <v>90.666666666667</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="85"/>
@@ -2156,9 +2156,15 @@
       <c r="C29" s="13">
         <v>98</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="17"/>
+      <c r="D29" s="14">
+        <v>88</v>
+      </c>
+      <c r="E29" s="14">
+        <v>92</v>
+      </c>
+      <c r="F29" s="17">
+        <v>87</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="85"/>
       <c r="I29" s="86"/>
@@ -2172,9 +2178,15 @@
       <c r="C30" s="13">
         <v>88</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="17"/>
+      <c r="D30" s="14">
+        <v>92</v>
+      </c>
+      <c r="E30" s="14">
+        <v>87</v>
+      </c>
+      <c r="F30" s="17">
+        <v>90</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="85"/>
       <c r="I30" s="86"/>
@@ -2188,9 +2200,15 @@
       <c r="C31" s="13">
         <v>91</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="17"/>
+      <c r="D31" s="14">
+        <v>86</v>
+      </c>
+      <c r="E31" s="14">
+        <v>88</v>
+      </c>
+      <c r="F31" s="17">
+        <v>95</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="85"/>
       <c r="I31" s="86"/>

--- a/reports/grade.xlsx
+++ b/reports/grade.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -276,22 +276,22 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>STINSON, BARNEY W.</t>
+    <t xml:space="preserve">JONES, JON </t>
   </si>
   <si>
     <t>LRN:</t>
   </si>
   <si>
-    <t>LRN40559200000011</t>
-  </si>
-  <si>
-    <t>Grade 1</t>
+    <t>LRN40559200000016</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
   </si>
   <si>
     <t>Date of Birth:</t>
   </si>
   <si>
-    <t>1990-01-01</t>
+    <t>2018-01-01</t>
   </si>
   <si>
     <t>Age:</t>
@@ -311,9 +311,6 @@
 	      The school welcomes you should you desire to know more about your child’s progress.</t>
   </si>
   <si>
-    <t>WAITFORIT</t>
-  </si>
-  <si>
     <t xml:space="preserve">  REPORT ON LEARNING PROGRESS AND ACHIEVEMENT</t>
   </si>
   <si>
@@ -437,7 +434,7 @@
     <t>Admitted to Grade:</t>
   </si>
   <si>
-    <t>GRADE 1 - SECTION APPLE</t>
+    <t>GRADE 2 - SECTION ABACA</t>
   </si>
   <si>
     <t>Admitted to:</t>
@@ -452,7 +449,7 @@
     <t>Approved:</t>
   </si>
   <si>
-    <t>SHELDON COOPER</t>
+    <t>HEV ABI</t>
   </si>
   <si>
     <t>ANGELYN P. COMENDADOR, MAEd.</t>
@@ -1404,16 +1401,84 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1430,10 +1495,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1444,77 +1509,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1762,6 +1759,7 @@
     <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1783,14 +1781,155 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1801,7 +1940,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1819,149 +1958,8 @@
     <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1978,13 +1976,13 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2014,7 +2012,6 @@
     <xf xfId="0" fontId="14" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2499,76 +2496,76 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.109375" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true" style="2"/>
+    <col min="1" max="1" width="3.88671875" customWidth="true" style="2"/>
     <col min="2" max="2" width="37" customWidth="true" style="2"/>
     <col min="3" max="3" width="26" customWidth="true" style="7"/>
-    <col min="4" max="4" width="5.42578125" customWidth="true" style="7"/>
-    <col min="5" max="5" width="13.85546875" customWidth="true" style="7"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true" style="2"/>
-    <col min="7" max="7" width="20.42578125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="9.140625" customWidth="true" style="2"/>
+    <col min="4" max="4" width="5.44140625" customWidth="true" style="7"/>
+    <col min="5" max="5" width="13.88671875" customWidth="true" style="7"/>
+    <col min="6" max="6" width="13.6640625" customWidth="true" style="2"/>
+    <col min="7" max="7" width="20.44140625" customWidth="true" style="7"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="15">
-      <c r="B2" s="110" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" customHeight="1" ht="15">
+    <row r="3" spans="1:10">
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="68" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15">
-      <c r="B4" s="110" t="s">
+    <row r="4" spans="1:10">
+      <c r="B4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15">
+    <row r="5" spans="1:10">
       <c r="B5" s="12"/>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="104"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="68" t="s">
         <v>8</v>
       </c>
@@ -2578,22 +2575,22 @@
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" customHeight="1" ht="15">
+    <row r="6" spans="1:10" customHeight="1" ht="14.4">
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15">
+    <row r="7" spans="1:10">
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2608,7 +2605,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" customHeight="1" ht="15.75">
+    <row r="8" spans="1:10" customHeight="1" ht="14.4">
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
@@ -2619,18 +2616,18 @@
       <c r="E8" s="76"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A9" s="106" t="s">
+    <row r="9" spans="1:10" customHeight="1" ht="14.4">
+      <c r="A9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.75">
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+    </row>
+    <row r="10" spans="1:10" customHeight="1" ht="14.4">
       <c r="A10" s="41" t="s">
         <v>15</v>
       </c>
@@ -3068,7 +3065,7 @@
       <c r="F39" s="29"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:10" customHeight="1" ht="15">
+    <row r="40" spans="1:10" customHeight="1" ht="14.4">
       <c r="A40" s="49">
         <v>30</v>
       </c>
@@ -3079,16 +3076,16 @@
       <c r="F40" s="42"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A41" s="106" t="s">
+    <row r="41" spans="1:10" customHeight="1" ht="14.4">
+      <c r="A41" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="109"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="43">
@@ -3529,7 +3526,7 @@
       <c r="F70" s="29"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:10" customHeight="1" ht="15">
+    <row r="71" spans="1:10" customHeight="1" ht="14.4">
       <c r="A71" s="45">
         <v>30</v>
       </c>
@@ -3576,75 +3573,75 @@
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="70" view="pageLayout" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="70" view="pageLayout" showGridLines="true" showRowColHeaders="1" topLeftCell="A10">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.109375" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="true" style="3"/>
-    <col min="2" max="2" width="17.7109375" customWidth="true" style="3"/>
+    <col min="1" max="1" width="18.109375" customWidth="true" style="3"/>
+    <col min="2" max="2" width="17.6640625" customWidth="true" style="3"/>
     <col min="3" max="3" width="8" customWidth="true" style="3"/>
-    <col min="4" max="4" width="8.5703125" customWidth="true" style="3"/>
-    <col min="5" max="5" width="8.5703125" customWidth="true" style="3"/>
-    <col min="6" max="6" width="9.42578125" customWidth="true" style="3"/>
-    <col min="7" max="7" width="12.5703125" customWidth="true" style="3"/>
-    <col min="8" max="8" width="7.85546875" customWidth="true" style="3"/>
-    <col min="9" max="9" width="7.42578125" customWidth="true" style="3"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="4" max="4" width="8.5546875" customWidth="true" style="3"/>
+    <col min="5" max="5" width="8.5546875" customWidth="true" style="3"/>
+    <col min="6" max="6" width="9.44140625" customWidth="true" style="3"/>
+    <col min="7" max="7" width="12.5546875" customWidth="true" style="3"/>
+    <col min="8" max="8" width="7.88671875" customWidth="true" style="3"/>
+    <col min="9" max="9" width="7.44140625" customWidth="true" style="3"/>
+    <col min="10" max="10" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:10" customHeight="1" ht="13.5">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="13.5">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
     </row>
     <row r="5" spans="1:10" customHeight="1" ht="13.5">
       <c r="A5" s="26"/>
@@ -3654,46 +3651,46 @@
         <f>'INPUT DATA'!E5</f>
         <v>Panabo Central</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="12.75">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A7" s="164" t="str">
+      <c r="A7" s="117" t="str">
         <f>'INPUT DATA'!C6</f>
         <v>SUNBEAM CHRISTIAN SCHOOL OF PANABO INC.</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
     </row>
     <row r="8" spans="1:10" customHeight="1" ht="16.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="170"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="75">
         <f>'INPUT DATA'!C7</f>
         <v>405592</v>
@@ -3703,36 +3700,36 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" customHeight="1" ht="16.5">
-      <c r="A9" s="165" t="s">
+    <row r="9" spans="1:10" customHeight="1" ht="16.2">
+      <c r="A9" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="14.25">
       <c r="A10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="169" t="s">
+      <c r="F10" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="169"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="12" t="s">
         <v>88</v>
       </c>
@@ -3742,7 +3739,7 @@
       <c r="A11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="112" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="113"/>
@@ -3751,17 +3748,17 @@
         <v>91</v>
       </c>
       <c r="F11" s="14">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="112" t="s">
+      <c r="H11" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="112"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.75">
+      <c r="I11" s="114"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>93</v>
       </c>
@@ -3788,164 +3785,162 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" customHeight="1" ht="15">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="146"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A15" s="147"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="149"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="129"/>
     </row>
     <row r="16" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A16" s="147"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="149"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
     </row>
     <row r="18" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
     </row>
     <row r="19" spans="1:10" customHeight="1" ht="14.25" hidden="true">
-      <c r="A19" s="147"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="149"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
     </row>
     <row r="20" spans="1:10" customHeight="1" ht="3" hidden="true">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="149"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="129"/>
     </row>
     <row r="21" spans="1:10" customHeight="1" ht="15.75" hidden="true">
-      <c r="A21" s="147"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="149"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
     </row>
     <row r="22" spans="1:10" customHeight="1" ht="8.25">
-      <c r="A22" s="150"/>
-      <c r="B22" s="151" t="s">
+      <c r="A22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+    </row>
+    <row r="23" spans="1:10" customHeight="1" ht="15.6">
+      <c r="A23" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="16.5">
-      <c r="A23" s="110" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+    </row>
+    <row r="24" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A24" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A24" s="153" t="s">
+      <c r="B24" s="134"/>
+      <c r="C24" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="153" t="s">
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157" t="s">
+      <c r="H24" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="154" t="s">
+      <c r="I24" s="137"/>
+    </row>
+    <row r="25" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A25" s="135"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="157"/>
-    </row>
-    <row r="25" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="71" t="s">
+      <c r="D25" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="E25" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="F25" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="G25" s="138"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="140"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="141" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="138" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="139"/>
+      <c r="B26" s="142"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -3954,17 +3949,17 @@
         <f>IF(ISERROR(IF(F26="","",ROUND(AVERAGE(C26:F26),0))),"",IF(F26="","",ROUND(AVERAGE(C26:F26),0)))</f>
         <v/>
       </c>
-      <c r="H26" s="140" t="str">
+      <c r="H26" s="143" t="str">
         <f>IF(G26="","",IF(G26&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I26" s="141"/>
+      <c r="I26" s="144"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="128"/>
+      <c r="A27" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="146"/>
       <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3973,14 +3968,14 @@
         <f>IF(ISERROR(IF(F27="","",ROUND(AVERAGE(C27:F27),0))),"",IF(F27="","",ROUND(AVERAGE(C27:F27),0)))</f>
         <v/>
       </c>
-      <c r="H27" s="142"/>
-      <c r="I27" s="129"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="128"/>
+      <c r="A28" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="146"/>
       <c r="C28" s="15"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3989,20 +3984,18 @@
         <f>IF(ISERROR(IF(F28="","",ROUND(AVERAGE(C28:F28),0))),"",IF(F28="","",ROUND(AVERAGE(C28:F28),0)))</f>
         <v/>
       </c>
-      <c r="H28" s="142" t="str">
+      <c r="H28" s="147" t="str">
         <f>IF(G28="","",IF(G28&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I28" s="129"/>
+      <c r="I28" s="148"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="124"/>
-      <c r="C29" s="15">
-        <v>99</v>
-      </c>
+      <c r="A29" s="149" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="150"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="55"/>
@@ -4010,17 +4003,17 @@
         <f>IF(ISERROR(IF(F29="","",ROUND(AVERAGE(C29:F29),0))),"",IF(F29="","",ROUND(AVERAGE(C29:F29),0)))</f>
         <v/>
       </c>
-      <c r="H29" s="143" t="str">
+      <c r="H29" s="151" t="str">
         <f>IF(G29="","",IF(G29&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I29" s="130"/>
+      <c r="I29" s="152"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="128"/>
+      <c r="A30" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="146"/>
       <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4029,17 +4022,17 @@
         <f>IF(ISERROR(IF(F30="","",ROUND(AVERAGE(C30:F30),0))),"",IF(F30="","",ROUND(AVERAGE(C30:F30),0)))</f>
         <v/>
       </c>
-      <c r="H30" s="135" t="str">
+      <c r="H30" s="153" t="str">
         <f>IF(G30="","",IF(G30&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I30" s="126"/>
+      <c r="I30" s="154"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="137"/>
+      <c r="A31" s="155" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="156"/>
       <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4048,17 +4041,17 @@
         <f>IF(ISERROR(IF(F31="","",ROUND(AVERAGE(C31:F31),0))),"",IF(F31="","",ROUND(AVERAGE(C31:F31),0)))</f>
         <v/>
       </c>
-      <c r="H31" s="135" t="str">
+      <c r="H31" s="153" t="str">
         <f>IF(G31="","",IF(G31&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I31" s="126"/>
+      <c r="I31" s="154"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="128"/>
+      <c r="A32" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="146"/>
       <c r="C32" s="15"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4067,132 +4060,106 @@
         <f>IF(ISERROR(IF(F32="","",ROUND(AVERAGE(C32:F32),0))),"",IF(F32="","",ROUND(AVERAGE(C32:F32),0)))</f>
         <v/>
       </c>
-      <c r="H32" s="125" t="str">
+      <c r="H32" s="157" t="str">
         <f>IF(G32="","",IF(G32&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I32" s="126"/>
+      <c r="I32" s="154"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="132"/>
-      <c r="C33" s="69">
-        <f>AVERAGE(C34:C37)</f>
-        <v>88.75</v>
-      </c>
-      <c r="D33" s="69">
-        <f>AVERAGE(D34:D37)</f>
-        <v>88.666666666667</v>
-      </c>
-      <c r="E33" s="69">
-        <f>AVERAGE(E34:E37)</f>
-        <v>89</v>
-      </c>
-      <c r="F33" s="69">
-        <f>AVERAGE(F34:F37)</f>
-        <v>90.666666666667</v>
-      </c>
-      <c r="G33" s="70">
+      <c r="A33" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="159"/>
+      <c r="C33" s="69" t="str">
+        <f>IFERROR(AVERAGE(C34:C37), "")</f>
+        <v/>
+      </c>
+      <c r="D33" s="69" t="str">
+        <f>IFERROR(AVERAGE(D34:D37), "")</f>
+        <v/>
+      </c>
+      <c r="E33" s="69" t="str">
+        <f>IFERROR(AVERAGE(E34:E37), "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="69" t="str">
+        <f>IFERROR(AVERAGE(F34:F37), "")</f>
+        <v/>
+      </c>
+      <c r="G33" s="70" t="str">
         <f>IF(ISERROR(IF(F33="","",ROUND(AVERAGE(C33:F33),0))),"",IF(F33="","",ROUND(AVERAGE(C33:F33),0)))</f>
-        <v>89</v>
+        <v/>
       </c>
       <c r="H33" s="14" t="str">
         <f>IF(G33="","",IF(G33&gt;=75,$G$43,$G$47))</f>
-        <v>Passed</v>
-      </c>
-      <c r="I33" s="129"/>
+        <v/>
+      </c>
+      <c r="I33" s="148"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="133" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="15">
-        <v>98</v>
-      </c>
-      <c r="D34" s="1">
-        <v>88</v>
-      </c>
-      <c r="E34" s="1">
-        <v>92</v>
-      </c>
-      <c r="F34" s="1">
-        <v>87</v>
-      </c>
-      <c r="G34" s="58">
+      <c r="A34" s="160" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="161"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="58" t="str">
         <f>IF(ISERROR(IF(F34="","",ROUND(AVERAGE(C34:F34),0))),"",IF(F34="","",ROUND(AVERAGE(C34:F34),0)))</f>
-        <v>91</v>
+        <v/>
       </c>
       <c r="H34" s="14" t="str">
         <f>IF(G34="","",IF(G34&gt;=75,$G$43,$G$47))</f>
-        <v>Passed</v>
-      </c>
-      <c r="I34" s="129"/>
+        <v/>
+      </c>
+      <c r="I34" s="148"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="146"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="58" t="str">
+        <f>IF(ISERROR(IF(F35="","",ROUND(AVERAGE(C35:F35),0))),"",IF(F35="","",ROUND(AVERAGE(C35:F35),0)))</f>
+        <v/>
+      </c>
+      <c r="H35" s="157" t="str">
+        <f>IF(G35="","",IF(G35&gt;=75,$G$43,$G$47))</f>
+        <v/>
+      </c>
+      <c r="I35" s="154"/>
+    </row>
+    <row r="36" spans="1:10" customHeight="1" ht="16.5">
+      <c r="A36" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="128"/>
-      <c r="C35" s="15">
-        <v>88</v>
-      </c>
-      <c r="D35" s="1">
-        <v>92</v>
-      </c>
-      <c r="E35" s="1">
-        <v>87</v>
-      </c>
-      <c r="F35" s="55">
-        <v>90</v>
-      </c>
-      <c r="G35" s="58">
-        <f>IF(ISERROR(IF(F35="","",ROUND(AVERAGE(C35:F35),0))),"",IF(F35="","",ROUND(AVERAGE(C35:F35),0)))</f>
-        <v>89</v>
-      </c>
-      <c r="H35" s="125" t="str">
-        <f>IF(G35="","",IF(G35&gt;=75,$G$43,$G$47))</f>
-        <v>Passed</v>
-      </c>
-      <c r="I35" s="126"/>
-    </row>
-    <row r="36" spans="1:10" customHeight="1" ht="16.5">
-      <c r="A36" s="123" t="s">
+      <c r="B36" s="150"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="58" t="str">
+        <f>IF(ISERROR(IF(F36="","",ROUND(AVERAGE(C36:F36),0))),"",IF(F36="","",ROUND(AVERAGE(C36:F36),0)))</f>
+        <v/>
+      </c>
+      <c r="H36" s="157" t="str">
+        <f>IF(G36="","",IF(G36&gt;=75,$G$43,$G$47))</f>
+        <v/>
+      </c>
+      <c r="I36" s="154"/>
+    </row>
+    <row r="37" spans="1:10" customHeight="1" ht="16.5">
+      <c r="A37" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="124"/>
-      <c r="C36" s="15">
-        <v>91</v>
-      </c>
-      <c r="D36" s="1">
-        <v>86</v>
-      </c>
-      <c r="E36" s="1">
-        <v>88</v>
-      </c>
-      <c r="F36" s="55">
-        <v>95</v>
-      </c>
-      <c r="G36" s="58">
-        <f>IF(ISERROR(IF(F36="","",ROUND(AVERAGE(C36:F36),0))),"",IF(F36="","",ROUND(AVERAGE(C36:F36),0)))</f>
-        <v>90</v>
-      </c>
-      <c r="H36" s="125" t="str">
-        <f>IF(G36="","",IF(G36&gt;=75,$G$43,$G$47))</f>
-        <v>Passed</v>
-      </c>
-      <c r="I36" s="126"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="16.5">
-      <c r="A37" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="15">
-        <v>78</v>
-      </c>
+      <c r="B37" s="146"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="55"/>
@@ -4204,13 +4171,13 @@
         <f>IF(G37="","",IF(G37&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I37" s="129"/>
+      <c r="I37" s="148"/>
     </row>
     <row r="38" spans="1:10" customHeight="1" ht="15">
-      <c r="A38" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="128"/>
+      <c r="A38" s="145" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="146"/>
       <c r="C38" s="15"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4223,13 +4190,13 @@
         <f>IF(G38="","",IF(G38&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I38" s="130"/>
+      <c r="I38" s="152"/>
     </row>
     <row r="39" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A39" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="115"/>
+      <c r="A39" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="163"/>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
@@ -4238,17 +4205,17 @@
         <f>IF(ISERROR(IF(F39="","",ROUND(AVERAGE(C39:F39),0))),"",IF(F39="","",ROUND(AVERAGE(C39:F39),0)))</f>
         <v/>
       </c>
-      <c r="H39" s="116" t="str">
+      <c r="H39" s="164" t="str">
         <f>IF(G39="","",IF(G39&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I39" s="117"/>
+      <c r="I39" s="165"/>
     </row>
     <row r="40" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A40" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="119"/>
+      <c r="A40" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="167"/>
       <c r="C40" s="98" t="str">
         <f>IF(ISERROR(IF(C39="","",ROUND(AVERAGE(C26:C33,C38),0))),"",IF(C39="","",ROUND(AVERAGE(C26:C33,C38:C39),0)))</f>
         <v/>
@@ -4265,12 +4232,12 @@
         <f>IF(ISERROR(IF(F39="","",ROUND(AVERAGE(F26:F33,F38),0))),"",IF(F39="","",ROUND(AVERAGE(F26:F33,F38:F39),0)))</f>
         <v/>
       </c>
-      <c r="G40" s="120" t="str">
+      <c r="G40" s="168" t="str">
         <f>IF(OR(G27="",G28="",G29="",G30="",G31="",G33="",G39="",G38=""),"",AVERAGE(G26:G33,G39))</f>
         <v/>
       </c>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="170"/>
     </row>
     <row r="41" spans="1:10" customHeight="1" ht="3">
       <c r="A41" s="2"/>
@@ -4283,106 +4250,106 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A42" s="110" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="111"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="110"/>
+      <c r="G42" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="111"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="109" t="s">
+      <c r="E43" s="110"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="109"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="H43" s="109"/>
+      <c r="H43" s="110"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="109"/>
+      <c r="E44" s="110"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="109"/>
+      <c r="G44" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="110"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="109"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="109"/>
+      <c r="G45" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="110"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:10" customHeight="1" ht="14.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="109"/>
+      <c r="E46" s="110"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="H46" s="109"/>
+      <c r="G46" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="110"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="109" t="s">
+      <c r="E47" s="110"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="109"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="109" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="109"/>
+      <c r="H47" s="110"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:10" customHeight="1" ht="4.5">
@@ -4407,56 +4374,56 @@
       <c r="H49" s="10"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A50" s="110" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="110" t="s">
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+    </row>
+    <row r="51" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A51" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="G50" s="110"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="110"/>
-    </row>
-    <row r="51" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A51" s="188" t="s">
+      <c r="B51" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+    </row>
+    <row r="52" spans="1:10" customHeight="1" ht="14.25">
+      <c r="A52" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
-    </row>
-    <row r="52" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A52" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H52" s="113"/>
       <c r="I52" s="113"/>
     </row>
     <row r="53" spans="1:10" customHeight="1" ht="15.75">
       <c r="A53" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4480,31 +4447,31 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2"/>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="171" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="171"/>
+      <c r="D55" s="22"/>
+      <c r="F55" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="22"/>
-      <c r="F55" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
     </row>
     <row r="56" spans="1:10" customHeight="1" ht="15.75">
       <c r="A56" s="2"/>
-      <c r="B56" s="109" t="s">
+      <c r="B56" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="110"/>
+      <c r="D56" s="7"/>
+      <c r="F56" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="109"/>
-      <c r="D56" s="7"/>
-      <c r="F56" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2"/>
@@ -4514,20 +4481,20 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="111"/>
-      <c r="C58" s="111"/>
+      <c r="A58" s="171" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
       <c r="D58" s="8"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
+      <c r="A59" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
@@ -4540,6 +4507,69 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -4553,69 +4583,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B51:E51"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.56" right="0.5" top="0.34" bottom="0.14" header="0.3" footer="0.14"/>
@@ -4645,37 +4612,37 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.109375" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="7.42578125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7.85546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.42578125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.42578125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7.5703125" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.5703125" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8.42578125" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.85546875" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8.85546875" customWidth="true" style="0"/>
-    <col min="12" max="12" width="9.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.5546875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="7.44140625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="7.44140625" customWidth="true" style="0"/>
+    <col min="4" max="4" width="7.88671875" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.44140625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.44140625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="7.5546875" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.5546875" customWidth="true" style="0"/>
+    <col min="9" max="9" width="8.44140625" customWidth="true" style="0"/>
+    <col min="10" max="10" width="8.88671875" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.88671875" customWidth="true" style="0"/>
+    <col min="12" max="12" width="9.33203125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="20.25">
-      <c r="A1" s="175" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
+      <c r="A1" s="176" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
     </row>
     <row r="2" spans="1:12" customHeight="1" ht="3">
       <c r="A2" s="77"/>
@@ -4691,45 +4658,45 @@
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
     </row>
-    <row r="3" spans="1:12" customHeight="1" ht="19.5" s="78" customFormat="1">
+    <row r="3" spans="1:12" customHeight="1" ht="18.6" s="78" customFormat="1">
       <c r="A3" s="99"/>
       <c r="B3" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="D3" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="E3" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="F3" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="G3" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="H3" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="I3" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="J3" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="K3" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="L3" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="103" t="s">
+    </row>
+    <row r="4" spans="1:12" customHeight="1" ht="52.2">
+      <c r="A4" s="79" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" customHeight="1" ht="54">
-      <c r="A4" s="79" t="s">
-        <v>159</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
@@ -4743,9 +4710,9 @@
       <c r="K4" s="93"/>
       <c r="L4" s="94"/>
     </row>
-    <row r="5" spans="1:12" customHeight="1" ht="54">
+    <row r="5" spans="1:12" customHeight="1" ht="52.2">
       <c r="A5" s="80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
@@ -4759,9 +4726,9 @@
       <c r="K5" s="95"/>
       <c r="L5" s="94"/>
     </row>
-    <row r="6" spans="1:12" customHeight="1" ht="54.75">
+    <row r="6" spans="1:12" customHeight="1" ht="52.8">
       <c r="A6" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="96"/>
       <c r="C6" s="96"/>
@@ -4790,76 +4757,76 @@
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="18">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="177" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="182"/>
+    </row>
+    <row r="10" spans="1:12" customHeight="1" ht="9">
+      <c r="A10" s="180"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="182"/>
+    </row>
+    <row r="11" spans="1:12" customHeight="1" ht="33">
+      <c r="A11" s="183"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+    </row>
+    <row r="12" spans="1:12" customHeight="1" ht="15"/>
+    <row r="13" spans="1:12" customHeight="1" ht="21" s="3" customFormat="1">
+      <c r="B13" s="186" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="178"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="181"/>
-    </row>
-    <row r="10" spans="1:12" customHeight="1" ht="9">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="181"/>
-    </row>
-    <row r="11" spans="1:12" customHeight="1" ht="33">
-      <c r="A11" s="182"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="184"/>
-    </row>
-    <row r="12" spans="1:12" customHeight="1" ht="15.75"/>
-    <row r="13" spans="1:12" customHeight="1" ht="21" s="3" customFormat="1">
-      <c r="B13" s="185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="188"/>
       <c r="K13" s="100"/>
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1">
@@ -4867,11 +4834,11 @@
       <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:12" customHeight="1" ht="20.25" s="85" customFormat="1">
-      <c r="B15" s="171" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
+      <c r="B15" s="172" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="86"/>
       <c r="F15" s="86"/>
       <c r="G15" s="86"/>
@@ -4884,12 +4851,12 @@
       <c r="C16" s="82"/>
       <c r="J16" s="84"/>
     </row>
-    <row r="17" spans="1:12" customHeight="1" ht="18" s="85" customFormat="1">
-      <c r="B17" s="171" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
+    <row r="17" spans="1:12" customHeight="1" ht="17.4" s="85" customFormat="1">
+      <c r="B17" s="172" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="86"/>
       <c r="F17" s="86"/>
       <c r="G17" s="86"/>
@@ -4902,12 +4869,12 @@
       <c r="C18" s="82"/>
       <c r="J18" s="84"/>
     </row>
-    <row r="19" spans="1:12" customHeight="1" ht="18" s="85" customFormat="1">
-      <c r="B19" s="171" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="172"/>
-      <c r="D19" s="172"/>
+    <row r="19" spans="1:12" customHeight="1" ht="17.4" s="85" customFormat="1">
+      <c r="B19" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="86"/>
       <c r="F19" s="86"/>
       <c r="G19" s="86"/>
@@ -4921,12 +4888,12 @@
       <c r="D20" s="85"/>
       <c r="J20" s="84"/>
     </row>
-    <row r="21" spans="1:12" customHeight="1" ht="18" s="85" customFormat="1">
-      <c r="B21" s="171" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
+    <row r="21" spans="1:12" customHeight="1" ht="17.4" s="85" customFormat="1">
+      <c r="B21" s="172" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="86"/>
       <c r="F21" s="86"/>
       <c r="G21" s="86"/>
@@ -4955,35 +4922,35 @@
     <row r="30" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1"/>
     <row r="31" spans="1:12" customHeight="1" ht="30.75" s="85" customFormat="1"/>
     <row r="32" spans="1:12" customHeight="1" ht="18">
-      <c r="A32" s="173" t="s">
+      <c r="A32" s="174" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+    </row>
+    <row r="33" spans="1:12" customHeight="1" ht="16.8">
+      <c r="A33" t="s">
         <v>168</v>
       </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-    </row>
-    <row r="33" spans="1:12" customHeight="1" ht="16.5">
-      <c r="A33" t="s">
+      <c r="I33" s="175" t="s">
         <v>169</v>
       </c>
-      <c r="I33" s="174" t="s">
-        <v>170</v>
-      </c>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
     </row>
     <row r="37" spans="1:12">
       <c r="E37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/reports/grade.xlsx
+++ b/reports/grade.xlsx
@@ -276,22 +276,22 @@
     <t>Name:</t>
   </si>
   <si>
-    <t xml:space="preserve">JONES, JON </t>
+    <t>GALORIO, BRIAN REY G.</t>
   </si>
   <si>
     <t>LRN:</t>
   </si>
   <si>
-    <t>LRN40559200000016</t>
-  </si>
-  <si>
-    <t>Grade 2</t>
+    <t>LRN40559200000027</t>
+  </si>
+  <si>
+    <t>Grade 5</t>
   </si>
   <si>
     <t>Date of Birth:</t>
   </si>
   <si>
-    <t>2018-01-01</t>
+    <t>2002-05-04</t>
   </si>
   <si>
     <t>Age:</t>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>School  Year:</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
   </si>
   <si>
     <t>Dear Parents:
@@ -311,6 +308,9 @@
 	      The school welcomes you should you desire to know more about your child’s progress.</t>
   </si>
   <si>
+    <t>G.</t>
+  </si>
+  <si>
     <t xml:space="preserve">  REPORT ON LEARNING PROGRESS AND ACHIEVEMENT</t>
   </si>
   <si>
@@ -434,7 +434,7 @@
     <t>Admitted to Grade:</t>
   </si>
   <si>
-    <t>GRADE 2 - SECTION ABACA</t>
+    <t>GRADE 5 - 5</t>
   </si>
   <si>
     <t>Admitted to:</t>
@@ -449,7 +449,7 @@
     <t>Approved:</t>
   </si>
   <si>
-    <t>HEV ABI</t>
+    <t>CRAIZIA JANE DEL ROSARIO</t>
   </si>
   <si>
     <t>ANGELYN P. COMENDADOR, MAEd.</t>
@@ -792,21 +792,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1004,6 +989,21 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1401,6 +1401,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1413,112 +1470,55 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="188">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1528,22 +1528,24 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1564,13 +1566,10 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1585,25 +1584,25 @@
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1612,12 +1611,12 @@
     <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="19" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
@@ -1634,13 +1633,13 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1667,7 +1666,7 @@
     <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1679,8 +1678,8 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="1" fillId="2" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="1" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,7 +1708,7 @@
     <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1719,13 +1718,13 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1750,13 +1749,13 @@
     <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="3" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -1781,13 +1780,157 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="48" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="37" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1808,159 +1951,15 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="48" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="37" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="164" fillId="0" borderId="42" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1976,13 +1975,13 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2500,624 +2499,624 @@
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="true" style="2"/>
     <col min="2" max="2" width="37" customWidth="true" style="2"/>
-    <col min="3" max="3" width="26" customWidth="true" style="7"/>
-    <col min="4" max="4" width="5.44140625" customWidth="true" style="7"/>
-    <col min="5" max="5" width="13.88671875" customWidth="true" style="7"/>
+    <col min="3" max="3" width="26" customWidth="true" style="6"/>
+    <col min="4" max="4" width="5.44140625" customWidth="true" style="6"/>
+    <col min="5" max="5" width="13.88671875" customWidth="true" style="6"/>
     <col min="6" max="6" width="13.6640625" customWidth="true" style="2"/>
-    <col min="7" max="7" width="20.44140625" customWidth="true" style="7"/>
+    <col min="7" max="7" width="20.44140625" customWidth="true" style="6"/>
     <col min="8" max="8" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="67" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="12"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="14.4">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>405592</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" customHeight="1" ht="14.4">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="14.4">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="108"/>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="14.4">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>1</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <v>3</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="44">
+      <c r="A12" s="43">
         <v>2</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <v>3</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="44">
+      <c r="A13" s="43">
         <v>3</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <v>3</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="44">
+      <c r="A14" s="43">
         <v>4</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <v>3</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <v>5</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <v>3</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="44">
+      <c r="A16" s="43">
         <v>6</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="32">
         <v>3</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="44">
+      <c r="A17" s="43">
         <v>7</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <v>3</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="44">
+      <c r="A18" s="43">
         <v>8</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <v>3</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="44">
+      <c r="A19" s="43">
         <v>9</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="44">
+      <c r="A20" s="43">
         <v>10</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="44">
+      <c r="A21" s="43">
         <v>11</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="44">
+      <c r="A22" s="43">
         <v>12</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="44">
+      <c r="A23" s="43">
         <v>13</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="44">
+      <c r="A24" s="43">
         <v>14</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="44">
+      <c r="A25" s="43">
         <v>15</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="44">
+      <c r="A26" s="43">
         <v>16</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="44">
+      <c r="A27" s="43">
         <v>17</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="44">
+      <c r="A28" s="43">
         <v>18</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="44">
+      <c r="A29" s="43">
         <v>19</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="44">
+      <c r="A30" s="43">
         <v>20</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="44">
+      <c r="A31" s="43">
         <v>21</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="44">
+      <c r="A32" s="43">
         <v>22</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="53"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="18"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="44">
+      <c r="A33" s="43">
         <v>23</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="44">
+      <c r="A34" s="43">
         <v>24</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="44">
+      <c r="A35" s="43">
         <v>25</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="53"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="44">
+      <c r="A36" s="43">
         <v>26</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="44">
+      <c r="A37" s="43">
         <v>27</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="44">
+      <c r="A38" s="43">
         <v>28</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="44">
+      <c r="A39" s="43">
         <v>29</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:10" customHeight="1" ht="14.4">
-      <c r="A40" s="49">
+      <c r="A40" s="48">
         <v>30</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="21"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:10" customHeight="1" ht="14.4">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="108"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="43">
+      <c r="A42" s="42">
         <v>1</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="32">
         <v>3</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="59" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="44">
+      <c r="A43" s="43">
         <v>2</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="52" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3126,21 +3125,21 @@
       <c r="E43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="32">
         <v>3</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="44">
+      <c r="A44" s="43">
         <v>3</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3149,21 +3148,21 @@
       <c r="E44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="32">
         <v>3</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="44">
+      <c r="A45" s="43">
         <v>4</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="52" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3172,21 +3171,21 @@
       <c r="E45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="32">
         <v>3</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="44">
+      <c r="A46" s="43">
         <v>5</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="52" t="s">
         <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3195,21 +3194,21 @@
       <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="32">
         <v>3</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="44">
+      <c r="A47" s="43">
         <v>6</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="52" t="s">
         <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3218,21 +3217,21 @@
       <c r="E47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="32">
         <v>3</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="44">
+      <c r="A48" s="43">
         <v>7</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="52" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3241,21 +3240,21 @@
       <c r="E48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F48" s="32">
         <v>3</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="44">
+      <c r="A49" s="43">
         <v>8</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="52" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3264,21 +3263,21 @@
       <c r="E49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="32">
         <v>3</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="44">
+      <c r="A50" s="43">
         <v>9</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="52" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3287,21 +3286,21 @@
       <c r="E50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="33">
+      <c r="F50" s="32">
         <v>3</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="44">
+      <c r="A51" s="43">
         <v>10</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="52" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3310,232 +3309,232 @@
       <c r="E51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="33">
+      <c r="F51" s="32">
         <v>3</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="44">
+      <c r="A52" s="43">
         <v>11</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="44">
+      <c r="A53" s="43">
         <v>12</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="44">
+      <c r="A54" s="43">
         <v>13</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="18"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="44">
+      <c r="A55" s="43">
         <v>14</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="18"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="44">
+      <c r="A56" s="43">
         <v>15</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="18"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="44">
+      <c r="A57" s="43">
         <v>16</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="18"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="44">
+      <c r="A58" s="43">
         <v>17</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="18"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="44">
+      <c r="A59" s="43">
         <v>18</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="44">
+      <c r="A60" s="43">
         <v>19</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="18"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="44">
+      <c r="A61" s="43">
         <v>20</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="18"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="44">
+      <c r="A62" s="43">
         <v>21</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="18"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="44">
+      <c r="A63" s="43">
         <v>22</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="44">
+      <c r="A64" s="43">
         <v>23</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="18"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="44">
+      <c r="A65" s="43">
         <v>24</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="53"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="18"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="44">
+      <c r="A66" s="43">
         <v>25</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="53"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="18"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="44">
+      <c r="A67" s="43">
         <v>26</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="53"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="18"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="44">
+      <c r="A68" s="43">
         <v>27</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="53"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="18"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="44">
+      <c r="A69" s="43">
         <v>28</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="18"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="44">
+      <c r="A70" s="43">
         <v>29</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="53"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="18"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:10" customHeight="1" ht="14.4">
-      <c r="A71" s="45">
+      <c r="A71" s="44">
         <v>30</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="61"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="60"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3592,178 +3591,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:10" customHeight="1" ht="13.5">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="13.5">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
     </row>
     <row r="5" spans="1:10" customHeight="1" ht="13.5">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f>'INPUT DATA'!E5</f>
         <v>Panabo Central</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="12.75">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A7" s="117" t="str">
+      <c r="A7" s="164" t="str">
         <f>'INPUT DATA'!C6</f>
         <v>SUNBEAM CHRISTIAN SCHOOL OF PANABO INC.</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="164"/>
     </row>
     <row r="8" spans="1:10" customHeight="1" ht="16.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="75">
+      <c r="D8" s="170"/>
+      <c r="E8" s="74">
         <f>'INPUT DATA'!C7</f>
         <v>405592</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="167"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="169"/>
+      <c r="H10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:10" customHeight="1" ht="15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="161" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="113"/>
       <c r="D11" s="113"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="14">
-        <v>6</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="13">
+        <v>22</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="114"/>
+      <c r="I11" s="112"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C12" s="113"/>
       <c r="D12" s="113"/>
@@ -3774,10 +3773,10 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10" customHeight="1" ht="3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3785,459 +3784,495 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" customHeight="1" ht="15">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="146"/>
+    </row>
+    <row r="15" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A15" s="147"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
+    </row>
+    <row r="16" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A16" s="147"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="149"/>
+    </row>
+    <row r="17" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A17" s="147"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
+    </row>
+    <row r="18" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+    </row>
+    <row r="19" spans="1:10" customHeight="1" ht="14.25" hidden="true">
+      <c r="A19" s="147"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="149"/>
+    </row>
+    <row r="20" spans="1:10" customHeight="1" ht="3" hidden="true">
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="149"/>
+    </row>
+    <row r="21" spans="1:10" customHeight="1" ht="15.75" hidden="true">
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="149"/>
+    </row>
+    <row r="22" spans="1:10" customHeight="1" ht="8.25">
+      <c r="A22" s="150"/>
+      <c r="B22" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A15" s="127"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="129"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A16" s="127"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A18" s="127"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
-    </row>
-    <row r="19" spans="1:10" customHeight="1" ht="14.25" hidden="true">
-      <c r="A19" s="127"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="129"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="3" hidden="true">
-      <c r="A20" s="127"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="129"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.75" hidden="true">
-      <c r="A21" s="127"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="129"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="8.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
     </row>
     <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="133" t="s">
+      <c r="B24" s="154"/>
+      <c r="C24" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="134" t="s">
+      <c r="H24" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="137"/>
+      <c r="I24" s="157"/>
     </row>
     <row r="25" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A25" s="135"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="71" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="138"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="140"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="57" t="str">
+      <c r="B26" s="139"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="56" t="str">
         <f>IF(ISERROR(IF(F26="","",ROUND(AVERAGE(C26:F26),0))),"",IF(F26="","",ROUND(AVERAGE(C26:F26),0)))</f>
         <v/>
       </c>
-      <c r="H26" s="143" t="str">
+      <c r="H26" s="140" t="str">
         <f>IF(G26="","",IF(G26&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I26" s="144"/>
+      <c r="I26" s="141"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="146"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="14">
+        <v>89</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="58" t="str">
+      <c r="F27" s="54"/>
+      <c r="G27" s="57" t="str">
         <f>IF(ISERROR(IF(F27="","",ROUND(AVERAGE(C27:F27),0))),"",IF(F27="","",ROUND(AVERAGE(C27:F27),0)))</f>
         <v/>
       </c>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="129"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="146"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="14">
+        <v>90</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="58" t="str">
+      <c r="F28" s="54"/>
+      <c r="G28" s="57" t="str">
         <f>IF(ISERROR(IF(F28="","",ROUND(AVERAGE(C28:F28),0))),"",IF(F28="","",ROUND(AVERAGE(C28:F28),0)))</f>
         <v/>
       </c>
-      <c r="H28" s="147" t="str">
+      <c r="H28" s="142" t="str">
         <f>IF(G28="","",IF(G28&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I28" s="148"/>
+      <c r="I28" s="129"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="14">
+        <v>92</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="58" t="str">
+      <c r="F29" s="54"/>
+      <c r="G29" s="57" t="str">
         <f>IF(ISERROR(IF(F29="","",ROUND(AVERAGE(C29:F29),0))),"",IF(F29="","",ROUND(AVERAGE(C29:F29),0)))</f>
         <v/>
       </c>
-      <c r="H29" s="151" t="str">
+      <c r="H29" s="143" t="str">
         <f>IF(G29="","",IF(G29&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I29" s="152"/>
+      <c r="I29" s="130"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="146"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="14">
+        <v>99</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="58" t="str">
+      <c r="F30" s="54"/>
+      <c r="G30" s="57" t="str">
         <f>IF(ISERROR(IF(F30="","",ROUND(AVERAGE(C30:F30),0))),"",IF(F30="","",ROUND(AVERAGE(C30:F30),0)))</f>
         <v/>
       </c>
-      <c r="H30" s="153" t="str">
+      <c r="H30" s="135" t="str">
         <f>IF(G30="","",IF(G30&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I30" s="154"/>
+      <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="155" t="s">
+      <c r="A31" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="156"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="14">
+        <v>87</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="58" t="str">
+      <c r="F31" s="54"/>
+      <c r="G31" s="57" t="str">
         <f>IF(ISERROR(IF(F31="","",ROUND(AVERAGE(C31:F31),0))),"",IF(F31="","",ROUND(AVERAGE(C31:F31),0)))</f>
         <v/>
       </c>
-      <c r="H31" s="153" t="str">
+      <c r="H31" s="135" t="str">
         <f>IF(G31="","",IF(G31&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I31" s="154"/>
+      <c r="I31" s="126"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="58" t="str">
+      <c r="B32" s="128"/>
+      <c r="C32" s="14">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1">
+        <v>85</v>
+      </c>
+      <c r="F32" s="54">
+        <v>93</v>
+      </c>
+      <c r="G32" s="57">
         <f>IF(ISERROR(IF(F32="","",ROUND(AVERAGE(C32:F32),0))),"",IF(F32="","",ROUND(AVERAGE(C32:F32),0)))</f>
-        <v/>
-      </c>
-      <c r="H32" s="157" t="str">
+        <v>90</v>
+      </c>
+      <c r="H32" s="125" t="str">
         <f>IF(G32="","",IF(G32&gt;=75,$G$43,$G$47))</f>
-        <v/>
-      </c>
-      <c r="I32" s="154"/>
+        <v>Passed</v>
+      </c>
+      <c r="I32" s="126"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="69" t="str">
+      <c r="B33" s="132"/>
+      <c r="C33" s="68">
         <f>IFERROR(AVERAGE(C34:C37), "")</f>
-        <v/>
-      </c>
-      <c r="D33" s="69" t="str">
+        <v>88</v>
+      </c>
+      <c r="D33" s="68" t="str">
         <f>IFERROR(AVERAGE(D34:D37), "")</f>
         <v/>
       </c>
-      <c r="E33" s="69" t="str">
+      <c r="E33" s="68" t="str">
         <f>IFERROR(AVERAGE(E34:E37), "")</f>
         <v/>
       </c>
-      <c r="F33" s="69" t="str">
+      <c r="F33" s="68" t="str">
         <f>IFERROR(AVERAGE(F34:F37), "")</f>
         <v/>
       </c>
-      <c r="G33" s="70" t="str">
+      <c r="G33" s="69" t="str">
         <f>IF(ISERROR(IF(F33="","",ROUND(AVERAGE(C33:F33),0))),"",IF(F33="","",ROUND(AVERAGE(C33:F33),0)))</f>
         <v/>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="13" t="str">
         <f>IF(G33="","",IF(G33&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I33" s="148"/>
+      <c r="I33" s="129"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="161"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="14">
+        <v>88</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="58" t="str">
+      <c r="G34" s="57" t="str">
         <f>IF(ISERROR(IF(F34="","",ROUND(AVERAGE(C34:F34),0))),"",IF(F34="","",ROUND(AVERAGE(C34:F34),0)))</f>
         <v/>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="13" t="str">
         <f>IF(G34="","",IF(G34&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I34" s="148"/>
+      <c r="I34" s="129"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="14">
+        <v>88</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="58" t="str">
+      <c r="F35" s="54"/>
+      <c r="G35" s="57" t="str">
         <f>IF(ISERROR(IF(F35="","",ROUND(AVERAGE(C35:F35),0))),"",IF(F35="","",ROUND(AVERAGE(C35:F35),0)))</f>
         <v/>
       </c>
-      <c r="H35" s="157" t="str">
+      <c r="H35" s="125" t="str">
         <f>IF(G35="","",IF(G35&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I35" s="154"/>
+      <c r="I35" s="126"/>
     </row>
     <row r="36" spans="1:10" customHeight="1" ht="16.5">
-      <c r="A36" s="149" t="s">
+      <c r="A36" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="150"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="14">
+        <v>88</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="58" t="str">
+      <c r="F36" s="54"/>
+      <c r="G36" s="57" t="str">
         <f>IF(ISERROR(IF(F36="","",ROUND(AVERAGE(C36:F36),0))),"",IF(F36="","",ROUND(AVERAGE(C36:F36),0)))</f>
         <v/>
       </c>
-      <c r="H36" s="157" t="str">
+      <c r="H36" s="125" t="str">
         <f>IF(G36="","",IF(G36&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I36" s="154"/>
+      <c r="I36" s="126"/>
     </row>
     <row r="37" spans="1:10" customHeight="1" ht="16.5">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="146"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="14">
+        <v>88</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="58" t="str">
+      <c r="F37" s="54"/>
+      <c r="G37" s="57" t="str">
         <f>IF(ISERROR(IF(F37="","",ROUND(AVERAGE(C37:F37),0))),"",IF(F37="","",ROUND(AVERAGE(C37:F37),0)))</f>
         <v/>
       </c>
-      <c r="H37" s="14" t="str">
+      <c r="H37" s="13" t="str">
         <f>IF(G37="","",IF(G37&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I37" s="148"/>
+      <c r="I37" s="129"/>
     </row>
     <row r="38" spans="1:10" customHeight="1" ht="15">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="146"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="58" t="str">
+      <c r="B38" s="128"/>
+      <c r="C38" s="14">
+        <v>90</v>
+      </c>
+      <c r="D38" s="1">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1">
+        <v>85</v>
+      </c>
+      <c r="F38" s="13">
+        <v>90</v>
+      </c>
+      <c r="G38" s="57">
         <f>IF(ISERROR(IF(F38="","",ROUND(AVERAGE(C38:F38),0))),"",IF(F38="","",ROUND(AVERAGE(C38:F38),0)))</f>
-        <v/>
-      </c>
-      <c r="H38" s="7" t="str">
+        <v>88</v>
+      </c>
+      <c r="H38" s="6" t="str">
         <f>IF(G38="","",IF(G38&gt;=75,$G$43,$G$47))</f>
-        <v/>
-      </c>
-      <c r="I38" s="152"/>
+        <v>Passed</v>
+      </c>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="163"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="59" t="str">
+      <c r="B39" s="115"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="58" t="str">
         <f>IF(ISERROR(IF(F39="","",ROUND(AVERAGE(C39:F39),0))),"",IF(F39="","",ROUND(AVERAGE(C39:F39),0)))</f>
         <v/>
       </c>
-      <c r="H39" s="164" t="str">
+      <c r="H39" s="116" t="str">
         <f>IF(G39="","",IF(G39&gt;=75,$G$43,$G$47))</f>
         <v/>
       </c>
-      <c r="I39" s="165"/>
+      <c r="I39" s="117"/>
     </row>
     <row r="40" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A40" s="166" t="s">
+      <c r="A40" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="167"/>
-      <c r="C40" s="98" t="str">
-        <f>IF(ISERROR(IF(C39="","",ROUND(AVERAGE(C26:C33,C38),0))),"",IF(C39="","",ROUND(AVERAGE(C26:C33,C38:C39),0)))</f>
-        <v/>
-      </c>
-      <c r="D40" s="5" t="str">
-        <f>IF(ISERROR(IF(D39="","",ROUND(AVERAGE(D26:D33,D38),0))),"",IF(D39="","",ROUND(AVERAGE(D26:D33,D38:D39),0)))</f>
-        <v/>
-      </c>
-      <c r="E40" s="5" t="str">
-        <f>IF(ISERROR(IF(E39="","",ROUND(AVERAGE(E26:E33,E38),0))),"",IF(E39="","",ROUND(AVERAGE(E26:E33,E38:E39),0)))</f>
-        <v/>
-      </c>
-      <c r="F40" s="5" t="str">
-        <f>IF(ISERROR(IF(F39="","",ROUND(AVERAGE(F26:F33,F38),0))),"",IF(F39="","",ROUND(AVERAGE(F26:F33,F38:F39),0)))</f>
-        <v/>
-      </c>
-      <c r="G40" s="168" t="str">
+      <c r="B40" s="119"/>
+      <c r="C40" s="97">
+        <f>IF(C38="", "", ROUND(AVERAGE(C26:C33, C38, C39), 0))</f>
+        <v>91</v>
+      </c>
+      <c r="D40" s="97">
+        <f>IF(D38="", "", ROUND(AVERAGE(D26:D33, D38, D39), 0))</f>
+        <v>89</v>
+      </c>
+      <c r="E40" s="97">
+        <f>IF(E38="", "", ROUND(AVERAGE(E26:E33, E38, E39), 0))</f>
+        <v>85</v>
+      </c>
+      <c r="F40" s="97">
+        <f>IF(F38="", "", ROUND(AVERAGE(F26:F33, F38, F39), 0))</f>
+        <v>92</v>
+      </c>
+      <c r="G40" s="120" t="str">
         <f>IF(OR(G27="",G28="",G29="",G30="",G31="",G33="",G39="",G38=""),"",AVERAGE(G26:G33,G39))</f>
         <v/>
       </c>
-      <c r="H40" s="169"/>
-      <c r="I40" s="170"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="122"/>
     </row>
     <row r="41" spans="1:10" customHeight="1" ht="3">
       <c r="A41" s="2"/>
@@ -4251,20 +4286,20 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="111" t="s">
+      <c r="B42" s="110"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="111" t="s">
+      <c r="E42" s="110"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="111"/>
+      <c r="H42" s="110"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:10">
@@ -4273,15 +4308,15 @@
         <v>122</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="110"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="110" t="s">
+      <c r="G43" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H43" s="110"/>
+      <c r="H43" s="109"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:10">
@@ -4290,15 +4325,15 @@
         <v>125</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="110"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H44" s="110"/>
+      <c r="H44" s="109"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:10">
@@ -4307,15 +4342,15 @@
         <v>127</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="110"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H45" s="110"/>
+      <c r="H45" s="109"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:10" customHeight="1" ht="14.25">
@@ -4324,15 +4359,15 @@
         <v>129</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="110"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="110"/>
+      <c r="H46" s="109"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:10">
@@ -4341,79 +4376,79 @@
         <v>131</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="110"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="110" t="s">
+      <c r="G47" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="110"/>
+      <c r="H47" s="109"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:10" customHeight="1" ht="4.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:10" customHeight="1" ht="2.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="111" t="s">
+      <c r="F50" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
     </row>
     <row r="51" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="114" t="s">
+      <c r="B51" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:10" customHeight="1" ht="14.25">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
         <v>140</v>
@@ -4447,31 +4482,31 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2"/>
-      <c r="B55" s="171" t="s">
+      <c r="B55" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="171"/>
-      <c r="D55" s="22"/>
-      <c r="F55" s="171" t="s">
+      <c r="C55" s="111"/>
+      <c r="D55" s="21"/>
+      <c r="F55" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
     </row>
     <row r="56" spans="1:10" customHeight="1" ht="15.75">
       <c r="A56" s="2"/>
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="110"/>
-      <c r="D56" s="7"/>
-      <c r="F56" s="110" t="s">
+      <c r="C56" s="109"/>
+      <c r="D56" s="6"/>
+      <c r="F56" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="110"/>
-      <c r="H56" s="110"/>
-      <c r="I56" s="110"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2"/>
@@ -4481,20 +4516,20 @@
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="171" t="s">
+      <c r="A58" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="8"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="110"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
@@ -4507,69 +4542,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A14:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="C24:F24"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -4583,6 +4555,69 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A14:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B51:E51"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.56" right="0.5" top="0.34" bottom="0.14" header="0.3" footer="0.14"/>
@@ -4629,288 +4664,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" customHeight="1" ht="20.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="175" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
     </row>
     <row r="2" spans="1:12" customHeight="1" ht="3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-    </row>
-    <row r="3" spans="1:12" customHeight="1" ht="18.6" s="78" customFormat="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="101" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="1:12" customHeight="1" ht="18.6" s="77" customFormat="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="102" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:12" customHeight="1" ht="52.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:12" customHeight="1" ht="52.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="52.8">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" customHeight="1" ht="9">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="18">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="178"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="180"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="182"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="181"/>
     </row>
     <row r="10" spans="1:12" customHeight="1" ht="9">
-      <c r="A10" s="180"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="182"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="181"/>
     </row>
     <row r="11" spans="1:12" customHeight="1" ht="33">
-      <c r="A11" s="183"/>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="184"/>
     </row>
     <row r="12" spans="1:12" customHeight="1" ht="15"/>
     <row r="13" spans="1:12" customHeight="1" ht="21" s="3" customFormat="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="100"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="99"/>
     </row>
     <row r="14" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1">
-      <c r="B14" s="83"/>
-      <c r="J14" s="84"/>
-    </row>
-    <row r="15" spans="1:12" customHeight="1" ht="20.25" s="85" customFormat="1">
-      <c r="B15" s="172" t="s">
+      <c r="B14" s="82"/>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="1:12" customHeight="1" ht="20.25" s="84" customFormat="1">
+      <c r="B15" s="171" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1">
-      <c r="B16" s="88"/>
-      <c r="C16" s="82"/>
-      <c r="J16" s="84"/>
-    </row>
-    <row r="17" spans="1:12" customHeight="1" ht="17.4" s="85" customFormat="1">
-      <c r="B17" s="172" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="81"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:12" customHeight="1" ht="17.4" s="84" customFormat="1">
+      <c r="B17" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="87"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1">
-      <c r="B18" s="88"/>
-      <c r="C18" s="82"/>
-      <c r="J18" s="84"/>
-    </row>
-    <row r="19" spans="1:12" customHeight="1" ht="17.4" s="85" customFormat="1">
-      <c r="B19" s="172" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="81"/>
+      <c r="J18" s="83"/>
+    </row>
+    <row r="19" spans="1:12" customHeight="1" ht="17.4" s="84" customFormat="1">
+      <c r="B19" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="87"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1">
-      <c r="B20" s="88"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="85"/>
-      <c r="J20" s="84"/>
-    </row>
-    <row r="21" spans="1:12" customHeight="1" ht="17.4" s="85" customFormat="1">
-      <c r="B21" s="172" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="84"/>
+      <c r="J20" s="83"/>
+    </row>
+    <row r="21" spans="1:12" customHeight="1" ht="17.4" s="84" customFormat="1">
+      <c r="B21" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
     </row>
     <row r="23" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1"/>
     <row r="24" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1"/>
@@ -4920,33 +4955,33 @@
     <row r="28" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1"/>
     <row r="29" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1"/>
     <row r="30" spans="1:12" customHeight="1" ht="10.5" s="3" customFormat="1"/>
-    <row r="31" spans="1:12" customHeight="1" ht="30.75" s="85" customFormat="1"/>
+    <row r="31" spans="1:12" customHeight="1" ht="30.75" s="84" customFormat="1"/>
     <row r="32" spans="1:12" customHeight="1" ht="18">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="173" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
     </row>
     <row r="33" spans="1:12" customHeight="1" ht="16.8">
       <c r="A33" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="175" t="s">
+      <c r="I33" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
     </row>
     <row r="37" spans="1:12">
       <c r="E37" t="s">
@@ -4967,7 +5002,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" scale="90" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <pageSetup paperSize="256" orientation="portrait" scale="89" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
